--- a/sensitive_user_portrait/manage_sensitive_words/sensitive_words.xlsx
+++ b/sensitive_user_portrait/manage_sensitive_words/sensitive_words.xlsx
@@ -8748,8 +8748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C549"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A459" workbookViewId="0">
-      <selection activeCell="A475" sqref="A475"/>
+    <sheetView tabSelected="1" topLeftCell="A536" workbookViewId="0">
+      <selection activeCell="B549" sqref="B549"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13261,6 +13261,9 @@
     <row r="549" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A549" s="2" t="s">
         <v>1110</v>
+      </c>
+      <c r="B549" s="3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
